--- a/biology/Zoologie/Grand_Coquin/Grand_Coquin.xlsx
+++ b/biology/Zoologie/Grand_Coquin/Grand_Coquin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Grand Coquin est un personnage de fiction apparu pour la première fois avec Gédéon dans le long métrage d'animation Pinocchio (1940).
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de ce qui devait être son premier jour d'école, Pinocchio passe devant Grand Coquin et Gédéon. N'ayant encore jamais vu une marionnette capable de se mouvoir sans fils, Grand Coquin remarque que ceci pourrait leur permettre de gagner de l'argent. Il décide alors d'inciter Pinocchio à les suivre jusqu'au théâtre de marionnettes de Stromboli. Plus tard, il fera tout son possible pour convaincre Pinocchio d'embarquer pour l'Île Enchantée.
-Selon John Grant, Grand Coquin fait partie des rares renards réellement mauvais créés par le studio Disney au côté de Renard Vantard dans Petit Poulet (1943) et Frère Renard dans Mélodie du Sud (1946)[1].
-Dans une version abandonnée de la séquence Mickey et le Haricot magique de Coquin de printemps (1947) le duo devait être les marchands ayant dupé Mickey à la ville lui vendant des haricots magiques contre sa vache[2].
+Selon John Grant, Grand Coquin fait partie des rares renards réellement mauvais créés par le studio Disney au côté de Renard Vantard dans Petit Poulet (1943) et Frère Renard dans Mélodie du Sud (1946).
+Dans une version abandonnée de la séquence Mickey et le Haricot magique de Coquin de printemps (1947) le duo devait être les marchands ayant dupé Mickey à la ville lui vendant des haricots magiques contre sa vache.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Apparence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Grand Coquin est un renard vêtu d'habits rapiécés. Il porte également une cape et un haut-de-forme et a
 toujours une canne sur lui.
@@ -577,7 +593,9 @@
           <t>Interprètes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Voix originale : Walter Catlett
 Voix allemande : Alfred Balthoff (1951) et Harald Juhnke (1973)
@@ -618,7 +636,9 @@
           <t>Chansons interprétées par Grand Coquin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La Vie d'artiste (Hi-Diddle-Dee-Dee) (d'abord en compagnie de Pinocchio, et ensuite seul) dans Pinocchio</t>
         </is>
